--- a/docs/project_management/risk_assessment.xlsx
+++ b/docs/project_management/risk_assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -74,9 +74,6 @@
     </r>
   </si>
   <si>
-    <t>Create prototypes and integration tests</t>
-  </si>
-  <si>
     <t>Loss of back-ups</t>
   </si>
   <si>
@@ -89,8 +86,11 @@
     <t>Missed Milestones</t>
   </si>
   <si>
+    <t xml:space="preserve">Create prototypes and integration tests, </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Total
+      <t xml:space="preserve">Risk Factor
 </t>
     </r>
     <r>
@@ -103,6 +103,9 @@
       </rPr>
       <t>Likelihood x Impact</t>
     </r>
+  </si>
+  <si>
+    <t>Allow time near end of project to catch-up</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E8" si="0">SUM(C3*D3)</f>
+        <f t="shared" ref="E3:E21" si="0">SUM(C3*D3)</f>
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -555,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -574,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -586,7 +589,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -599,11 +604,11 @@
         <v>2</v>
       </c>
       <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -625,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -646,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,8 +666,8 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E3:E21" si="1">SUM(C9*2 + D9)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -678,8 +683,8 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -695,8 +700,8 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -712,8 +717,8 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -729,8 +734,8 @@
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -746,8 +751,8 @@
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -763,8 +768,8 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -780,8 +785,8 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -797,8 +802,8 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -814,8 +819,8 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -831,8 +836,8 @@
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -848,8 +853,8 @@
         <v>1</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -865,8 +870,8 @@
         <v>1</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F21" s="4"/>
     </row>

--- a/docs/project_management/risk_assessment.xlsx
+++ b/docs/project_management/risk_assessment.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="-1665" yWindow="225" windowWidth="27795" windowHeight="13350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Chart" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -22,22 +23,13 @@
     <t>Mitigation Strategies</t>
   </si>
   <si>
-    <t>Poor management</t>
-  </si>
-  <si>
     <t>Loss of work</t>
   </si>
   <si>
-    <t>Use back-ups / Cloud storage / GitHub</t>
-  </si>
-  <si>
     <t>Unclear commit messages</t>
   </si>
   <si>
     <t>Risk</t>
-  </si>
-  <si>
-    <t>Compications intergrating technologies</t>
   </si>
   <si>
     <r>
@@ -83,12 +75,6 @@
     <t>Clearly define needs and scope of project</t>
   </si>
   <si>
-    <t>Missed Milestones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create prototypes and integration tests, </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Risk Factor
 </t>
@@ -106,6 +92,114 @@
   </si>
   <si>
     <t>Allow time near end of project to catch-up</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Poor planning</t>
+  </si>
+  <si>
+    <t>Use back-ups / Cloud storage / Version Control</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>Users unavailable for testing</t>
+  </si>
+  <si>
+    <t>Solution cannot be verified by real users</t>
+  </si>
+  <si>
+    <t>Requirements are insufficent</t>
+  </si>
+  <si>
+    <t>Follow an adapatable workflow such as Agile</t>
+  </si>
+  <si>
+    <t>Project requirements change</t>
+  </si>
+  <si>
+    <t>Prolonged loss of access to online resources</t>
+  </si>
+  <si>
+    <t>Supplementary research cannot be completed</t>
+  </si>
+  <si>
+    <t>Digital developer environment is not suitable</t>
+  </si>
+  <si>
+    <t>Persistant programming bugs</t>
+  </si>
+  <si>
+    <t>Ensure environment is set-up beforehand and is comfortable</t>
+  </si>
+  <si>
+    <t>Underestimated difficulty of task</t>
+  </si>
+  <si>
+    <t>Tasks take longer to complete than planned</t>
+  </si>
+  <si>
+    <t>Difficulty intergrating technologies</t>
+  </si>
+  <si>
+    <t>Create prototypes and integration tests</t>
+  </si>
+  <si>
+    <t>Developed solution is not suited to live environments</t>
+  </si>
+  <si>
+    <t>Ensure requirements are clear</t>
+  </si>
+  <si>
+    <t>Follow a standard or convention for commit messages</t>
+  </si>
+  <si>
+    <t>Solution is cost in-effective</t>
+  </si>
+  <si>
+    <t>Project overruns / Fails to meet milestones</t>
+  </si>
+  <si>
+    <t>Provide lenient development time to address bugs</t>
+  </si>
+  <si>
+    <t>Work must be repeated</t>
+  </si>
+  <si>
+    <t>Reviewing code later may become difficult</t>
+  </si>
+  <si>
+    <t>Chosen technologies must be reconsidered</t>
+  </si>
+  <si>
+    <t>Unnecessary work may be completed</t>
+  </si>
+  <si>
+    <t>Chosen technology is unsufficent</t>
+  </si>
+  <si>
+    <t>Previous plans may become irrelevant</t>
+  </si>
+  <si>
+    <t>Select evaluation strategy that does not require live users</t>
+  </si>
+  <si>
+    <t>Solution may require rework</t>
+  </si>
+  <si>
+    <t>Complete research sub-stages early</t>
+  </si>
+  <si>
+    <t>Use project management software / Follow a planning process</t>
+  </si>
+  <si>
+    <t>Use multiple back-ups</t>
   </si>
 </sst>
 </file>
@@ -128,15 +222,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA50021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,11 +295,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +350,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,404 +700,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(C2*E2)</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F17" si="0">SUM(C3*E3)</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5">
-        <f>SUM(C2*D2)</f>
-        <v>16</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E21" si="0">SUM(C3*D3)</f>
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>4</v>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D1048576">
+  <conditionalFormatting sqref="C2:C1048576 E2:E1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -888,7 +1136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576 D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -903,4 +1151,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B4:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/project_management/risk_assessment.xlsx
+++ b/docs/project_management/risk_assessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1665" yWindow="225" windowWidth="27795" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="-1665" yWindow="225" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Analysis" sheetId="1" r:id="rId1"/>
@@ -352,18 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -398,6 +386,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -749,7 +749,7 @@
       <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="5">
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -773,14 +773,14 @@
       <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F17" si="0">SUM(C3*E3)</f>
+        <f>SUM(C3*E3)</f>
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -788,342 +788,345 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
+      <c r="A4" s="9">
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <f>SUM(C4*E4)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f>SUM(C5*E5)</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <f>SUM(C6*E6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(C7*E7)</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM(C8*E8)</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <f>SUM(C9*E9)</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(C10*E10)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <f>SUM(C11*E11)</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
+      <c r="F12" s="5">
+        <f>SUM(C12*E12)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="D13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F13" s="5">
+        <f>SUM(C13*E13)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUM(C14*E14)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <f>SUM(C15*E15)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <f>SUM(C16*E16)</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
+      <c r="F17" s="5">
+        <f>SUM(C17*E17)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:G17">
+    <sortCondition descending="1" ref="F2:F17"/>
+  </sortState>
   <conditionalFormatting sqref="C2:C1048576 E2:E1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -1157,85 +1160,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="12">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12">
+      <c r="B7" s="23"/>
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
